--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="genres" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="schools" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="school_houses" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="people" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="creatures" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="653">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1184,6 +1185,804 @@
   </si>
   <si>
     <t xml:space="preserve">Kreacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skin_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pale-Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/HBHh9b9/creature-Ashwinder.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augurey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenish-black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/hfbjySP/creature-augurey.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake, Chicken, Toad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/TvKdmXf/creature-basilisk.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billywig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bright blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/XbfX5w2/creature-Billywig.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/m5HPHHp/creature-Bowtruckle.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/BzF3TtR/creature-Bundimun.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humans, Horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/JxCnjJS/creature-Centaur.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimaera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lion, Bull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/LZF4sjq/creature-Chimaera.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chizpurfle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown with green pincers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/R294Cx7/creature-Chizpurfle.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chupacabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue and Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/5RfDxLm/creature-Chupacabra.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clabbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mottled Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/3vZpvtQ/creature-Clabbert.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White and Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/VYYQmnC/creature-Crup.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidebehind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black, Blue when predicting future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/gSQq9h7/creature-demiguise.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diricawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluish-pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/Qk06BV6/creature-Diricawl.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy, Pixies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple, Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/vXH4yny/creature-Doxy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Antipodean Opaleye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicoloured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/TPjTV6B/creature-dragon-Antipodean-Opaleye.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Chinese Fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/yF9d5mh/creature-dragon-Chinese-Fireball.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Common Welsh Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/r5fDRds/creature-dragon-Common-Welsh-Green.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Hebridean Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/CvdhF7b/creature-dragon-Hebridean-Black.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Hungarian Horntail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/MSk7f5b/creature-dragon-Hungarian-Horntail.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Norwegian Ridgeback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/s3SvjB3/creature-dragon-Norwegian-Ridgeback.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Peruvian Vipertooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/4YXWmw2/creature-dragon-Peruvian-Vipertooth.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Romanian Longhorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/GHcMvqp/creature-dragon-Romanian-Longhorn.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Swedish Short-Snout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvery blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/xgGB06k/creature-dragon-Swedish-Short-Snout.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Ukrainian Ironbelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metallic grey-silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/w488dhH/creature-dragon-Ukrainian-Ironbelly.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erumpent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/tMqMtXx/creature-Erumpent.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/0VHVdsD/creature-dubdog.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House-elves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/yWHB4rZ/creature-Erkling.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast-Ended Skrewt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/J3Lvx5H/creature-Fire-Crab.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixie, Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/9rN9yVp/creature-Fairy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/0Ybg9sM/creature-Fwooper.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidebehind, Chameleon Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greyish Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/DC0ZQcv/creature-Ghoul.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glumbumble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/Z1nvxQS/creature-Glumbumble.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown or lime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/DtpqcHS/creature-Gnome.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greyish-purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/41RT81k/creature-Graphorn.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippogriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brownish-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/qgdMFcM/creature-Griffin.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grindylow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sickly green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow, White, Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/vs3CM96/creature-Grindylow.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise, Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/5WTJJYF/creature-Hidebehind.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue, Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/g42dTxt/creature-Hippocampus.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormy grey, Chestnut, Bronze, Pinkish roan, Chestnut, Inky black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/SRhWSv4/creature-Hippogriff.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hodag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red, glowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/1MvQMkV/creature-Hodag.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horklump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/9sG3hkT/creature-Horklump.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horned Serpent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/d0ZrhyN/creature-Horned-Serpent.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pïxie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/8spKS4W/creature-Imp.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/cJkdRPN/creature-Jarvey.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobberknoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speckled blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/k6nZNsQ/creature-Jobberknoll.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/BtP8JvX/creature-Kappa.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/WB55fPL/creature-Kelpie.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knarl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/GnRG6VJ/creature-Knarl.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneazle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/hyhCMvn/creature-Kneazle.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leprechaun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/MPbXXsK/creature-Leprechaun.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/dKcnKtr/creature-Lethifold.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobalug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/VjPydFt/creature-Lobalug.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackled Malaclaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey with green spots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/ngNCsCv/creature-Mackled-Malaclaw.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manticore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/GJzfgfD/creature-Manticore.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merpeople</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siren, Merrow, Selkie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/jrDqG9g/creature-Merpeople.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/hg2m0SY/creature-Moke.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mooncalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/JtNhQjQ/creature-Mooncalf.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murtlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pale pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/LC05nzB/creature-Murtlap.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niffler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/bK8hM1M/creature-Niffler.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/xF1NJRh/creature-Nogtail.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow with black spots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/f1tVyPT/creature-Nundu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turquoise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/K5mjMs9/creature-Occamy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoo-hoo, Thunderbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/vVGVGrZ/creature-Phoenix.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy, Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/F5cZVzZ/creature-Pixie.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plimpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/XkjryS5/creature-Plimpy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogrebin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/g3d0W1f/creature-Pogrebin.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffskein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pygmy Puff, Appaloosa Puffskein, Fanged Puffskein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/FXW1Hsg/creature-Puffskein.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red-brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/MPwhWPh/creature-Quintaped.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/hD4bmh7/creature-Ramora.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/5jRYdQs/creature-Red-Cap.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re'em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/mD9mmSW/creature-Re-em.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runespoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange with black stripes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/N6Vp7B7/creature-Runespoor.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazonian Salamanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/d7Gpp90/creature-Salamander.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea serpent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/1Mf4Cxq/creature-Sea-serpent.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/nQMjfwL/creature-Shrake.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snallygaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/N1FWMhy/creature-Snallygaster.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almond-shaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/8rS4WF2/creature-Sphinx.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/S7fg83W/creature-Streeler.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warthog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/FH0vhGh/creature-Tebo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/C5qYDDK/creature-Troll.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/QchQcDV/creature-Thunderbird.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White, silver, gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/XSb0tNh/creature-Unicorn.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werewolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf, Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/F7HRctb/creature-Werewolf.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse, Thestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/3k5wVS3/creature-Winged-Horse.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/RSF5LYq/creature-yeti.jpg</t>
   </si>
 </sst>
 </file>
@@ -1298,11 +2097,11 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1337,11 +2136,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.04"/>
@@ -1416,16 +2215,16 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,15 +2324,15 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H95" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.2"/>
@@ -4376,4 +5175,1519 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="33.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="58.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="genres" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="659">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">Potter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/C9LrC1j/harry-real.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ibb.co/cTv2VKK/harry-cartoon.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/MpzK6zP/harry-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/L8MdcjX/harry-cartoon.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Student</t>
@@ -170,6 +170,12 @@
     <t xml:space="preserve">Granger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/4J6Zzs8/hermione-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/FgRxtxG/hermione-cartoon.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">10¾" vine wood dragon heartstring</t>
   </si>
   <si>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">Hagrid</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/qBHVRtJ/2002-Harry-Potter-And-The-Chamber-Of-Secrets-Original-Film-Title-Harry-Potter-And-The-Chamber-Of-Sec.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ibb.co/rxSSKmy/hagrid-cartoon.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/gWqRkM1/2002-Harry-Potter-And-The-Chamber-Of-Secrets-Original-Film-Title-Harry-Potter-And-The-Chamber-Of-Sec.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/WGyRL4h/hagrid-cartoon.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Keeper of Keys and Grounds | Professor of Care of Magical Creatures</t>
@@ -215,7 +221,10 @@
     <t xml:space="preserve">Longbottom</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/VT6JWJV/neville-real.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/5kbhWc1/neville-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/L6XPh1B/neville-cartoon.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">13" Cherry unicorn hair</t>
@@ -407,6 +416,12 @@
     <t xml:space="preserve">McGonagall</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/nb8MzR8/minerva-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/d7YRkyZ/minerva-cartoon.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Professor of Transfiguration | Head of Gryffindor</t>
   </si>
   <si>
@@ -455,10 +470,10 @@
     <t xml:space="preserve">Lovegood</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/XjtWH7Q/luna-real.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ibb.co/6mRHz7s/luna-cartoon.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/nr4rLg5/luna-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/NV7RkCp/luna-cartoon.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Hare</t>
@@ -623,6 +638,9 @@
     <t xml:space="preserve">Narcissa </t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.ibb.co/NpnG2bn/dumbledore-real.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regulus Arcturus </t>
   </si>
   <si>
@@ -926,7 +944,7 @@
     <t xml:space="preserve">Moody</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/DbbcdMY/ojoloco-real.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/MS42K7G/ojoloco-real.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Alice </t>
@@ -1100,10 +1118,10 @@
     <t xml:space="preserve">Severus Potter</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.ibb.co/NpnG2bn/dumbledore-real.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://i.ibb.co/YhBC3FD/dumbledore-cartoon.jpg</t>
+    <t xml:space="preserve">https://i.ibb.co/m8bZkd0/dumbledore-real.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.ibb.co/fDpB05p/dumbledore-cartoon.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Scorpius </t>
@@ -1992,7 +2010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2012,6 +2030,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FFF7F7F7"/>
+      <name val="Ubuntu"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -2057,7 +2088,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2074,8 +2105,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2087,6 +2126,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF7F7F7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2101,7 +2200,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2140,7 +2239,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.04"/>
@@ -2219,7 +2318,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="48.88"/>
@@ -2324,15 +2423,15 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.2"/>
@@ -2373,7 +2472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2383,10 +2482,10 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2426,7 +2525,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2435,89 +2534,98 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
+      <c r="A5" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>55</v>
+    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
+      <c r="D6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>61</v>
+      <c r="A7" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>14</v>
@@ -2525,7 +2633,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
@@ -2537,18 +2645,18 @@
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>69</v>
+      <c r="A9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>43</v>
@@ -2560,10 +2668,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>14</v>
@@ -2571,10 +2679,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -2583,10 +2691,10 @@
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>14</v>
@@ -2594,10 +2702,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
@@ -2606,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>14</v>
@@ -2617,10 +2725,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -2629,10 +2737,10 @@
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>14</v>
@@ -2640,7 +2748,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -2649,13 +2757,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
@@ -2663,7 +2771,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>36</v>
@@ -2672,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>41</v>
@@ -2686,22 +2794,22 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>14</v>
@@ -2709,22 +2817,22 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>14</v>
@@ -2732,22 +2840,22 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2755,7 +2863,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>43</v>
@@ -2764,13 +2872,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>14</v>
@@ -2778,7 +2886,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
@@ -2787,10 +2895,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>14</v>
@@ -2798,7 +2906,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>43</v>
@@ -2807,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>14</v>
@@ -2821,22 +2929,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>14</v>
@@ -2844,22 +2952,22 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>14</v>
@@ -2867,10 +2975,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -2879,10 +2987,10 @@
         <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>14</v>
@@ -2890,10 +2998,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -2902,10 +3010,10 @@
         <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>14</v>
@@ -2913,10 +3021,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -2925,10 +3033,10 @@
         <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>14</v>
@@ -2936,10 +3044,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -2948,10 +3056,10 @@
         <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>14</v>
@@ -2959,10 +3067,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -2971,10 +3079,10 @@
         <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
@@ -2982,10 +3090,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -2994,10 +3102,10 @@
         <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>14</v>
@@ -3005,10 +3113,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -3017,10 +3125,10 @@
         <v>39</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>14</v>
@@ -3028,10 +3136,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -3040,10 +3148,10 @@
         <v>39</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>14</v>
@@ -3051,22 +3159,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>14</v>
@@ -3074,7 +3188,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>43</v>
@@ -3083,13 +3197,13 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>14</v>
@@ -3097,7 +3211,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>43</v>
@@ -3106,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -3120,22 +3234,22 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>19</v>
@@ -3143,10 +3257,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -3155,39 +3269,39 @@
         <v>39</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>144</v>
+      <c r="D36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
@@ -3195,22 +3309,22 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>19</v>
@@ -3218,22 +3332,22 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>19</v>
@@ -3241,22 +3355,22 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>19</v>
@@ -3264,22 +3378,22 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>19</v>
@@ -3287,10 +3401,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -3299,10 +3413,10 @@
         <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>19</v>
@@ -3310,10 +3424,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -3322,10 +3436,10 @@
         <v>39</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>19</v>
@@ -3333,10 +3447,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1</v>
@@ -3345,10 +3459,10 @@
         <v>39</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>19</v>
@@ -3356,10 +3470,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -3368,10 +3482,10 @@
         <v>39</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>19</v>
@@ -3379,10 +3493,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1</v>
@@ -3391,10 +3505,10 @@
         <v>39</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>19</v>
@@ -3402,10 +3516,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
@@ -3414,10 +3528,10 @@
         <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>19</v>
@@ -3425,22 +3539,22 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>21</v>
@@ -3448,10 +3562,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
@@ -3460,10 +3574,10 @@
         <v>39</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>21</v>
@@ -3471,10 +3585,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1</v>
@@ -3483,10 +3597,10 @@
         <v>39</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>21</v>
@@ -3494,10 +3608,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -3506,10 +3620,10 @@
         <v>39</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>21</v>
@@ -3517,22 +3631,22 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>21</v>
@@ -3540,22 +3654,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>21</v>
@@ -3563,22 +3677,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>21</v>
@@ -3586,22 +3700,22 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>21</v>
@@ -3609,22 +3723,25 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D55" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>21</v>
@@ -3632,22 +3749,22 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>21</v>
@@ -3655,22 +3772,22 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>21</v>
@@ -3678,22 +3795,22 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>21</v>
@@ -3701,10 +3818,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1</v>
@@ -3713,10 +3830,10 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>21</v>
@@ -3724,22 +3841,22 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>21</v>
@@ -3747,10 +3864,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1</v>
@@ -3759,10 +3876,10 @@
         <v>39</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>21</v>
@@ -3770,10 +3887,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -3782,10 +3899,10 @@
         <v>39</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>21</v>
@@ -3793,10 +3910,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1</v>
@@ -3805,10 +3922,10 @@
         <v>39</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>21</v>
@@ -3816,22 +3933,22 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>21</v>
@@ -3839,10 +3956,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1</v>
@@ -3851,10 +3968,10 @@
         <v>39</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>21</v>
@@ -3862,10 +3979,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
@@ -3874,10 +3991,10 @@
         <v>39</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>19</v>
@@ -3885,10 +4002,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1</v>
@@ -3897,10 +4014,10 @@
         <v>39</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>19</v>
@@ -3908,10 +4025,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1</v>
@@ -3920,10 +4037,10 @@
         <v>39</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>19</v>
@@ -3931,7 +4048,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>21</v>
@@ -3940,13 +4057,13 @@
         <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>21</v>
@@ -3954,7 +4071,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>14</v>
@@ -3963,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>14</v>
@@ -3977,7 +4094,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>19</v>
@@ -3986,13 +4103,13 @@
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>19</v>
@@ -4000,22 +4117,22 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>14</v>
@@ -4023,99 +4140,99 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>21</v>
@@ -4123,22 +4240,22 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>21</v>
@@ -4146,7 +4263,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>17</v>
@@ -4155,13 +4272,13 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>17</v>
@@ -4169,22 +4286,22 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>17</v>
@@ -4192,7 +4309,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>19</v>
@@ -4201,13 +4318,13 @@
         <v>2</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>19</v>
@@ -4215,22 +4332,22 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>17</v>
@@ -4238,22 +4355,22 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>17</v>
@@ -4261,22 +4378,22 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>17</v>
@@ -4284,10 +4401,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1</v>
@@ -4296,10 +4413,10 @@
         <v>39</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>17</v>
@@ -4307,10 +4424,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1</v>
@@ -4319,10 +4436,10 @@
         <v>39</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>17</v>
@@ -4330,10 +4447,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>1</v>
@@ -4342,10 +4459,10 @@
         <v>39</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>17</v>
@@ -4353,10 +4470,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -4365,10 +4482,10 @@
         <v>39</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>17</v>
@@ -4376,10 +4493,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1</v>
@@ -4388,10 +4505,10 @@
         <v>39</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>17</v>
@@ -4399,10 +4516,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -4411,10 +4528,10 @@
         <v>39</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>17</v>
@@ -4422,22 +4539,22 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>21</v>
@@ -4445,23 +4562,23 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>21</v>
@@ -4469,22 +4586,22 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>21</v>
@@ -4492,22 +4609,22 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>21</v>
@@ -4515,106 +4632,106 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>300</v>
+      <c r="D97" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>14</v>
@@ -4622,142 +4739,142 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>23</v>
@@ -4765,50 +4882,50 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>1</v>
@@ -4816,10 +4933,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -4827,10 +4944,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -4838,10 +4955,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>1</v>
@@ -4849,10 +4966,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>1</v>
@@ -4860,10 +4977,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>2</v>
@@ -4871,10 +4988,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1</v>
@@ -4882,10 +4999,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -4893,10 +5010,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1</v>
@@ -4904,10 +5021,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
@@ -4915,10 +5032,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -4926,10 +5043,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>1</v>
@@ -4937,10 +5054,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
@@ -4948,10 +5065,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1</v>
@@ -4959,10 +5076,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1</v>
@@ -4970,10 +5087,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -4981,38 +5098,38 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>359</v>
+      <c r="D126" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>1</v>
@@ -5020,10 +5137,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1</v>
@@ -5031,10 +5148,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>1</v>
@@ -5042,10 +5159,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
@@ -5053,10 +5170,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1</v>
@@ -5064,10 +5181,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>2</v>
@@ -5075,10 +5192,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2</v>
@@ -5086,10 +5203,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2</v>
@@ -5097,10 +5214,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2</v>
@@ -5108,10 +5225,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2</v>
@@ -5119,10 +5236,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>2</v>
@@ -5130,10 +5247,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>1</v>
@@ -5141,10 +5258,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>1</v>
@@ -5152,7 +5269,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1</v>
@@ -5160,13 +5277,25 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://i.ibb.co/MpzK6zP/harry-real.jpg"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://i.ibb.co/L8MdcjX/harry-cartoon.jpg"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://i.ibb.co/gWqRkM1/2002-Harry-Potter-And-The-Chamber-Of-Secrets-Original-Film-Title-Harry-Potter-And-The-Chamber-Of-Sec.jpg"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://i.ibb.co/WGyRL4h/hagrid-cartoon.jpg"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://i.ibb.co/5kbhWc1/neville-real.jpg"/>
+    <hyperlink ref="D36" r:id="rId6" display="https://i.ibb.co/nr4rLg5/luna-real.jpg"/>
+    <hyperlink ref="E36" r:id="rId7" display="https://i.ibb.co/NV7RkCp/luna-cartoon.jpg"/>
+    <hyperlink ref="D97" r:id="rId8" display="https://i.ibb.co/MS42K7G/ojoloco-real.jpg"/>
+    <hyperlink ref="D126" r:id="rId9" display="https://i.ibb.co/m8bZkd0/dumbledore-real.jpg"/>
+    <hyperlink ref="E126" r:id="rId10" display="https://i.ibb.co/fDpB05p/dumbledore-cartoon.jpg"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5184,7 +5313,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -5192,11 +5321,11 @@
       <selection pane="bottomRight" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="26.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="58.77"/>
@@ -5207,1478 +5336,1478 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
